--- a/text-emotion-training-dataset.xlsx
+++ b/text-emotion-training-dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaime\Downloads\PRO-C114-Text-Sentiment-Dataset-mainpt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amand\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AEA016-D950-4E23-8A65-5568B5B3607C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33CB54FF-F129-4091-B889-E805444E0E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5A56F8DC-BE57-4C9B-B4C0-65E86CD7162C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="18840" xr2:uid="{5A56F8DC-BE57-4C9B-B4C0-65E86CD7162C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -35,102 +35,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>Text_Emotion</t>
   </si>
   <si>
-    <t>eu posso passar do estado de desesperançoso a malditamente esperançoso só de estar perto de alguém que se importa e está acordado;tristeza</t>
-  </si>
-  <si>
-    <t>sempre me sinto nostálgico da lareira saberei que ainda está na propriedade;amor</t>
-  </si>
-  <si>
-    <t>estou me sentindo mal-humorado;raiva</t>
-  </si>
-  <si>
-    <t>Eu tenho me sentido um pouco sobrecarregado ultimamente, não tinha certeza do porquê disso;tristeza</t>
-  </si>
-  <si>
-    <t>tenho tomado ou miligramas ou vezes a quantidade recomendada e adormeci muito mais rápido, mas também me sinto muito engraçado;surpresa</t>
-  </si>
-  <si>
-    <t>eu me sinto tão confuso sobre a vida como um adolescente ou tão cansado quanto uma pessoa idosa;medo</t>
-  </si>
-  <si>
-    <t>estou com a petronas há anos, sinto que a petronas teve um bom desempenho e teve um lucro enorme;alegria</t>
-  </si>
-  <si>
-    <t>eu também me sinto romântico;amor</t>
-  </si>
-  <si>
-    <t>eu sinto que tenho que fazer o sofrimento que estou vendo ter algum significado;tristeza</t>
-  </si>
-  <si>
-    <t>eu acho que é a época do ano mais fácil para se sentir insatisfeito;raiva</t>
-  </si>
-  <si>
-    <t>eu sinto pouca energia estou apenas com sede;tristeza</t>
-  </si>
-  <si>
-    <t>não me sinto seguro a ansiedade está de cada lado;alegria</t>
-  </si>
-  <si>
-    <t>eu me sinto muito patético na maioria das vezes;tristeza</t>
-  </si>
-  <si>
-    <t>agora me sinto comprometido e cético em relação ao valor de cada unidade de trabalho que coloco;medo</t>
-  </si>
-  <si>
-    <t>tenho a sensação de que ela se divertiu e se encantou;alegria</t>
-  </si>
-  <si>
-    <t>fico tonta por me sentir elegante em uma saia lápis perfeitamente ajustada;alegria</t>
-  </si>
-  <si>
-    <t>Lembro-me de me sentir muito angustiado por alguns dias;medo</t>
-  </si>
-  <si>
-    <t>vi ouvir e ler nos últimos dois dias fiquei impressionado com mais do que algumas empresas;surpresa</t>
-  </si>
-  <si>
-    <t>eu preciso sentir a massa para ter certeza que está simplesmente perfeita;alegria</t>
-  </si>
-  <si>
-    <t>fiquei um pouco frustrado enquanto escrevia sentindo-me inseguro de que poderia ir a algum lugar com a história não intencional;medo</t>
-  </si>
-  <si>
-    <t>eu continuo me sentindo agradavelmente surpreso com seu apoio e também sua facilidade em novas situações;surpresa</t>
-  </si>
-  <si>
-    <t>comecei a tê-los várias vezes por semana sentindo-me torturado pelas alucinações movendo pessoas e figuras sons e vibrações;medo</t>
-  </si>
-  <si>
-    <t>estou quase terminando a semana de desintoxicação e me sinto incrível;surpresa</t>
-  </si>
-  <si>
-    <t>suponho que minha própria verdade precisa ser compartilhada não tenho me sentido muito fiel ultimamente tenho vivido mais na dúvida e na incerteza do que na fé;amor</t>
-  </si>
-  <si>
-    <t>eu estava pronto para encontrar minha mãe no aeroporto e sentir seus braços sempre me apoiando;amor</t>
-  </si>
-  <si>
-    <t>eu sinto que alguns de vocês têm dores e não podem imaginar se apaixonar pelo grupo ou pela ideia que está causando dor;amor</t>
-  </si>
-  <si>
-    <t>eu também me sinto um estranho em uma terra estranha e estou criando meu filho em um lugar que não é o lar ancestral de seu pai;surpresa</t>
-  </si>
-  <si>
-    <t>estou me sentindo muito irritado;raiva</t>
-  </si>
-  <si>
-    <t>estou começando a me sentir um pouco insultado por esse estranho;raiva</t>
-  </si>
-  <si>
-    <t>estou aguardando um minuto para postar eu me sinto ganancioso errado;raiva</t>
-  </si>
-  <si>
-    <t>eu não me senti humilhado;tristeza</t>
+    <t>Ver meu parceiro sorrir me faz lembrar o quanto o amo; amor</t>
+  </si>
+  <si>
+    <t>Receber uma mensagem de um velho amigo me enche de alegria; alegria</t>
+  </si>
+  <si>
+    <t>Fui traído por alguém em quem confiava; raiva</t>
+  </si>
+  <si>
+    <t>A incerteza do futuro me causa ansiedade constante; medo</t>
+  </si>
+  <si>
+    <t>A risada de uma criança é a coisa mais contagiante do mundo; alegria</t>
+  </si>
+  <si>
+    <t>O nascer do sol na praia sempre me traz alegria; alegria</t>
+  </si>
+  <si>
+    <t>A incompetência constante no trabalho é uma fonte de frustração e raiva; raiva</t>
+  </si>
+  <si>
+    <t>O trânsito na hora do rush sempre me deixa furioso; raiva</t>
+  </si>
+  <si>
+    <t>Cuidar do meu animal de estimação é uma demonstração diária de amor; amor</t>
+  </si>
+  <si>
+    <t>Andar sozinho à noite me enche de medo; medo</t>
+  </si>
+  <si>
+    <t>A lembrança do nosso primeiro beijo ainda aquece meu coração; amor</t>
+  </si>
+  <si>
+    <t>Medo de perder as pessoas que amo me assombra; medo</t>
+  </si>
+  <si>
+    <t>Ver aranhas me deixa completamente apavorado; medo</t>
+  </si>
+  <si>
+    <t>Realizar um sonho de infância me enche de alegria; alegria</t>
+  </si>
+  <si>
+    <t>Escrever cartas de amor ainda é minha maneira favorita de expressar sentimentos; amor</t>
+  </si>
+  <si>
+    <t>O som de trovões me faz tremer de medo; medo</t>
+  </si>
+  <si>
+    <t>Receber críticas injustas me deixa extremamente irritado; raiva</t>
+  </si>
+  <si>
+    <t>O abraço caloroso da minha mãe é meu refúgio de amor; amor</t>
+  </si>
+  <si>
+    <t>Fiquei um pouco frustrado enquanto escrevia, sentindo-me inseguro de que poderia ir a algum lugar com a história não intencional; medo</t>
+  </si>
+  <si>
+    <t>Lembro-me de me sentir muito angustiado por alguns dias; medo</t>
+  </si>
+  <si>
+    <t>A falta de respeito pelos outros me deixa com raiva; raiva</t>
+  </si>
+  <si>
+    <t>Continuo agradavelmente surpreso com seu apoio e também sua facilidade em novas situações; surpresa</t>
+  </si>
+  <si>
+    <t>Estou quase terminando a semana de desintoxicação e me sinto incrível; surpresa</t>
+  </si>
+  <si>
+    <t>Sinto-me como um estrangeiro em uma terra estranha, criando meu filho em um lugar que não é o lar ancestral de seu pai; surpresa</t>
+  </si>
+  <si>
+    <t>Sinto-me com pouca energia, apenas com sede; tristeza</t>
+  </si>
+  <si>
+    <t>Eu me sinto muito patético na maioria das vezes; tristeza</t>
+  </si>
+  <si>
+    <t>Eu não me senti humilhado; tristeza</t>
+  </si>
+  <si>
+    <t>Tenho me sentido um pouco sobrecarregado ultimamente, sem ter certeza do motivo; tristeza</t>
+  </si>
+  <si>
+    <t>Eu sinto que tenho que fazer o sofrimento que estou vendo ter algum significado; tristeza</t>
+  </si>
+  <si>
+    <t>Posso passar do estado de desespero para a esperança ao estar perto de alguém que se importa e está acordado; tristeza</t>
+  </si>
+  <si>
+    <t>Comecei a tê-los várias vezes por semana, sentindo-me torturado pelas alucinações, movendo pessoas e figuras, sons e vibrações; medo</t>
+  </si>
+  <si>
+    <t>Estou aguardando um minuto para postar, eu me sinto ganancioso errado; raiva</t>
+  </si>
+  <si>
+    <t>Estou me sentindo mal-humorado; raiva</t>
+  </si>
+  <si>
+    <t>Eu acho que é a época do ano mais fácil para se sentir insatisfeito; raiva</t>
+  </si>
+  <si>
+    <t>Estou me sentindo muito irritado; raiva</t>
+  </si>
+  <si>
+    <t>Estou começando a me sentir um pouco insultado por esse estranho; raiva</t>
+  </si>
+  <si>
+    <t>Tenho tomado uma quantidade de miligramas muito acima do recomendado e adormeci mais rapidamente, mas também me sinto peculiar; surpresa</t>
+  </si>
+  <si>
+    <t>Vi, ouvi e li nos últimos dois dias, fiquei impressionado com mais do que algumas empresas; surpresa</t>
   </si>
 </sst>
 </file>
@@ -482,175 +503,241 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94DBE0E-D159-4B11-A0EE-FAB4A72A9A36}">
-  <dimension ref="A1:A32"/>
+  <dimension ref="A1:A45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>